--- a/fhir/CodeSystem-urn-oid-1.2.208.176.2.4.xlsx
+++ b/fhir/CodeSystem-urn-oid-1.2.208.176.2.4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="235">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -436,6 +436,72 @@
   </si>
   <si>
     <t>Type 2-diabetes UNS</t>
+  </si>
+  <si>
+    <t>DF00</t>
+  </si>
+  <si>
+    <t>Demens ved Alzheimers sygdom</t>
+  </si>
+  <si>
+    <t>DF10</t>
+  </si>
+  <si>
+    <t>Psykiske lidelser og adfærdsmæssige forstyrrelser forårsaget af brug af alkohol</t>
+  </si>
+  <si>
+    <t>DF20</t>
+  </si>
+  <si>
+    <t>Skizofreni</t>
+  </si>
+  <si>
+    <t>DF30</t>
+  </si>
+  <si>
+    <t>Manisk enkeltepisode</t>
+  </si>
+  <si>
+    <t>DF40</t>
+  </si>
+  <si>
+    <t>Fobiske angsttilstande</t>
+  </si>
+  <si>
+    <t>DF50</t>
+  </si>
+  <si>
+    <t>Spiseforstyrrelser</t>
+  </si>
+  <si>
+    <t>DF60</t>
+  </si>
+  <si>
+    <t>Specifikke forstyrrelser af personlighedsstrukturen</t>
+  </si>
+  <si>
+    <t>DF70</t>
+  </si>
+  <si>
+    <t>Mental retardering af lettere grad</t>
+  </si>
+  <si>
+    <t>DF80</t>
+  </si>
+  <si>
+    <t>Specifikke udviklingsforstyrrelser af tale og sprog</t>
+  </si>
+  <si>
+    <t>DF90</t>
+  </si>
+  <si>
+    <t>Hyperkinetiske forstyrrelser</t>
+  </si>
+  <si>
+    <t>DF99</t>
+  </si>
+  <si>
+    <t>Ikke nærmere specificerede psykiske lidelser</t>
   </si>
   <si>
     <t>DI20</t>
@@ -968,7 +1034,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1578,7 +1644,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>143</v>
@@ -1590,7 +1656,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>145</v>
@@ -1602,7 +1668,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>147</v>
@@ -1614,7 +1680,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>149</v>
@@ -1626,7 +1692,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>151</v>
@@ -1638,7 +1704,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>153</v>
@@ -1650,7 +1716,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>155</v>
@@ -1662,7 +1728,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>157</v>
@@ -1674,7 +1740,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>159</v>
@@ -1686,7 +1752,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>161</v>
@@ -1722,7 +1788,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>167</v>
@@ -1746,7 +1812,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>171</v>
@@ -1758,7 +1824,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>173</v>
@@ -1770,7 +1836,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>175</v>
@@ -1782,7 +1848,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>177</v>
@@ -1794,7 +1860,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>179</v>
@@ -1806,7 +1872,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>181</v>
@@ -1830,7 +1896,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>185</v>
@@ -1866,7 +1932,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>191</v>
@@ -1878,7 +1944,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>193</v>
@@ -1890,7 +1956,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>195</v>
@@ -1950,7 +2016,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>205</v>
@@ -1974,7 +2040,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>209</v>
@@ -1986,7 +2052,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>211</v>
@@ -1995,6 +2061,138 @@
         <v>212</v>
       </c>
       <c r="D85" s="2"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="D96" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/fhir/CodeSystem-urn-oid-1.2.208.176.2.4.xlsx
+++ b/fhir/CodeSystem-urn-oid-1.2.208.176.2.4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="237">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -718,6 +718,12 @@
   </si>
   <si>
     <t>Hjemmeblodtryksmåling udført af patienten</t>
+  </si>
+  <si>
+    <t>ZZ7011</t>
+  </si>
+  <si>
+    <t>Klinisk foto</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1040,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2194,6 +2200,18 @@
       </c>
       <c r="D96" s="2"/>
     </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="D97" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/fhir/CodeSystem-urn-oid-1.2.208.176.2.4.xlsx
+++ b/fhir/CodeSystem-urn-oid-1.2.208.176.2.4.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-urn-oid-1.2.208.176.2.4.xlsx
+++ b/fhir/CodeSystem-urn-oid-1.2.208.176.2.4.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-urn-oid-1.2.208.176.2.4.xlsx
+++ b/fhir/CodeSystem-urn-oid-1.2.208.176.2.4.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-urn-oid-1.2.208.176.2.4.xlsx
+++ b/fhir/CodeSystem-urn-oid-1.2.208.176.2.4.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-urn-oid-1.2.208.176.2.4.xlsx
+++ b/fhir/CodeSystem-urn-oid-1.2.208.176.2.4.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-urn-oid-1.2.208.176.2.4.xlsx
+++ b/fhir/CodeSystem-urn-oid-1.2.208.176.2.4.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-urn-oid-1.2.208.176.2.4.xlsx
+++ b/fhir/CodeSystem-urn-oid-1.2.208.176.2.4.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-urn-oid-1.2.208.176.2.4.xlsx
+++ b/fhir/CodeSystem-urn-oid-1.2.208.176.2.4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="239">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -502,6 +502,12 @@
   </si>
   <si>
     <t>Ikke nærmere specificerede psykiske lidelser</t>
+  </si>
+  <si>
+    <t>DG20</t>
+  </si>
+  <si>
+    <t>Parkinsons sygdom</t>
   </si>
   <si>
     <t>DI20</t>
@@ -1040,7 +1046,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1782,7 +1788,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>165</v>
@@ -1794,7 +1800,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>167</v>
@@ -1818,7 +1824,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>171</v>
@@ -1842,7 +1848,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>175</v>
@@ -1866,7 +1872,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>179</v>
@@ -1890,7 +1896,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>183</v>
@@ -1902,7 +1908,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>185</v>
@@ -1914,7 +1920,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>187</v>
@@ -1938,7 +1944,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>191</v>
@@ -1974,7 +1980,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>197</v>
@@ -1998,7 +2004,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>201</v>
@@ -2022,7 +2028,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>205</v>
@@ -2070,7 +2076,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>213</v>
@@ -2094,7 +2100,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>217</v>
@@ -2130,7 +2136,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>223</v>
@@ -2166,7 +2172,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>229</v>
@@ -2178,7 +2184,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>231</v>
@@ -2190,7 +2196,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>233</v>
@@ -2211,6 +2217,18 @@
         <v>236</v>
       </c>
       <c r="D97" s="2"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="D98" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
